--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3486.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3486.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.087042084193087</v>
+        <v>0.7845051884651184</v>
       </c>
       <c r="B1">
-        <v>1.938993320921474</v>
+        <v>3.319449186325073</v>
       </c>
       <c r="C1">
-        <v>6.576855060865056</v>
+        <v>3.656013250350952</v>
       </c>
       <c r="D1">
-        <v>4.085013439188074</v>
+        <v>2.975138902664185</v>
       </c>
       <c r="E1">
-        <v>1.580631293572468</v>
+        <v>1.783617615699768</v>
       </c>
     </row>
   </sheetData>
